--- a/data/trans_camb/IP2003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-1,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 4,83</t>
+          <t>-4,66; 5,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 3,58</t>
+          <t>-6,31; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -0,01</t>
+          <t>-7,45; 2,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,03</t>
+          <t>-3,68; 6,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -2,35</t>
+          <t>-7,58; 2,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,14; -5,55</t>
+          <t>-5,38; 5,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,86</t>
+          <t>-2,95; 4,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -0,71</t>
+          <t>-5,31; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -4,66</t>
+          <t>-5,2; 2,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-26,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>-15,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-34,29%</t>
+          <t>-12,98%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 21,67</t>
+          <t>-34,53; 60,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 16,12</t>
+          <t>-45,99; 40,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 0,87</t>
+          <t>-56,62; 24,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 17,27</t>
+          <t>-24,01; 71,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -7,63</t>
+          <t>-49,79; 27,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -15,36</t>
+          <t>-36,71; 56,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 10,72</t>
+          <t>-21,94; 41,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,96; -2,61</t>
+          <t>-38,59; 16,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,63; -15,87</t>
+          <t>-39,4; 22,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-13,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-9,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,11</t>
+          <t>-6,89; 4,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 3,48</t>
+          <t>-8,08; 3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 2,15</t>
+          <t>-13,14; -0,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,71</t>
+          <t>-8,67; 5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 2,48</t>
+          <t>-14,76; -2,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,86</t>
+          <t>-19,14; -5,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,15</t>
+          <t>-5,99; 2,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,57</t>
+          <t>-9,64; -0,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,41</t>
+          <t>-13,94; -4,66</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>-4,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>-8,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,35%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>-6,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-25,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-40,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>-5,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>-17,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>-34,29%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 60,64</t>
+          <t>-24,31; 21,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 40,67</t>
+          <t>-28,5; 16,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,62; 24,82</t>
+          <t>-47,01; 0,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 71,16</t>
+          <t>-24,56; 17,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 27,81</t>
+          <t>-40,61; -7,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 56,93</t>
+          <t>-54,08; -15,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 41,81</t>
+          <t>-18,95; 10,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 16,25</t>
+          <t>-30,96; -2,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 22,51</t>
+          <t>-45,63; -15,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 6,0</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,45</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-67,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-63,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-51,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-30,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-58,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>128,99%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,33; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 1078,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,11</t>
+          <t>-1,69; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 3,48</t>
+          <t>-2,55; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 2,15</t>
+          <t>-1,04; 6,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,71</t>
+          <t>-2,74; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 2,48</t>
+          <t>-2,03; 4,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,86</t>
+          <t>-1,59; 6,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,15</t>
+          <t>-1,36; 3,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,57</t>
+          <t>-1,31; 3,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,41</t>
+          <t>-0,43; 5,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,35%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>52,09%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 60,64</t>
+          <t>-32,95; 155,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 40,67</t>
+          <t>-46,55; 126,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,62; 24,82</t>
+          <t>-23,68; 223,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 71,16</t>
+          <t>-49,18; 119,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 27,81</t>
+          <t>-36,72; 165,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 56,93</t>
+          <t>-29,54; 206,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 41,81</t>
+          <t>-25,65; 93,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 16,25</t>
+          <t>-25,22; 100,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 22,51</t>
+          <t>-8,28; 159,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-10,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 4,83</t>
+          <t>-9,59; 5,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 3,58</t>
+          <t>-9,56; 4,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -0,01</t>
+          <t>-17,09; -3,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,03</t>
+          <t>-7,24; 9,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -2,35</t>
+          <t>-17,36; -2,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,14; -5,55</t>
+          <t>-19,32; -3,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,86</t>
+          <t>-6,43; 5,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -0,71</t>
+          <t>-12,04; -1,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -4,66</t>
+          <t>-15,91; -5,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-7,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>-10,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-48,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>-35,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>-39,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>-24,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,29%</t>
+          <t>-43,77%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 21,67</t>
+          <t>-37,12; 34,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 16,12</t>
+          <t>-37,56; 26,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 0,87</t>
+          <t>-66,12; -18,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 17,27</t>
+          <t>-22,99; 42,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -7,63</t>
+          <t>-54,09; -9,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -15,36</t>
+          <t>-61,25; -12,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 10,72</t>
+          <t>-23,26; 25,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,96; -2,61</t>
+          <t>-42,59; -5,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,63; -15,87</t>
+          <t>-58,41; -23,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-10,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,14</t>
+          <t>-8,96; 5,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,46</t>
+          <t>-9,56; 4,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,16</t>
+          <t>-13,76; 2,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,52</t>
+          <t>-9,98; 6,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -0,84</t>
+          <t>-16,51; -1,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 2,09</t>
+          <t>-21,11; -3,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,42</t>
+          <t>-6,67; 4,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,36</t>
+          <t>-11,37; -0,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,84</t>
+          <t>-15,43; -4,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,68%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>-26,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,01%</t>
+          <t>-40,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>-18,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-33,05%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 16,89</t>
+          <t>-30,39; 24,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 11,82</t>
+          <t>-32,17; 20,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 24,69</t>
+          <t>-45,79; 8,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 15,76</t>
+          <t>-26,29; 21,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,69; -5,21</t>
+          <t>-44,27; -3,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 14,49</t>
+          <t>-55,87; -10,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 8,83</t>
+          <t>-19,82; 15,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,82; -1,89</t>
+          <t>-34,21; -1,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 6,12</t>
+          <t>-47,19; -14,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 1,65</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 1,46</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 2,76</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 2,82</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; -0,67</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 1,17</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 0,98</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; -0,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 0,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,93%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-6,68%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-4,47%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-23,1%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-17,01%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-16,55%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-12,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-28,37; 13,17</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 11,31</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-26,38; 23,41</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-21,92; 17,75</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-38,57; -3,91</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-34,54; 7,9</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,14; 6,43</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-28,92; -3,53</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-26,68; 5,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP2003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 10,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,16</t>
+          <t>-2,01; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,46</t>
+          <t>-2,52; 3,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 6,67</t>
+          <t>-1,31; 6,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,61</t>
+          <t>-3,16; 3,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,79</t>
+          <t>-2,14; 4,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 6,26</t>
+          <t>-1,28; 6,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,08</t>
+          <t>-1,51; 2,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,29</t>
+          <t>-1,44; 2,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,19</t>
+          <t>-0,18; 5,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 155,47</t>
+          <t>-36,5; 148,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 126,44</t>
+          <t>-46,68; 118,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 223,43</t>
+          <t>-26,76; 228,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 119,62</t>
+          <t>-51,87; 102,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 165,38</t>
+          <t>-40,48; 134,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 206,05</t>
+          <t>-25,96; 213,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 93,57</t>
+          <t>-28,72; 82,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 100,38</t>
+          <t>-28,17; 83,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 159,14</t>
+          <t>-5,75; 137,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 5,87</t>
+          <t>-9,46; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 4,83</t>
+          <t>-9,39; 4,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,09; -3,6</t>
+          <t>-18,1; -3,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 9,66</t>
+          <t>-8,15; 8,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,36; -2,51</t>
+          <t>-18,71; -2,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -3,1</t>
+          <t>-19,07; -2,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 5,35</t>
+          <t>-6,54; 4,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -1,12</t>
+          <t>-11,46; -0,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -5,15</t>
+          <t>-16,35; -5,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 34,69</t>
+          <t>-36,38; 32,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 26,38</t>
+          <t>-36,07; 29,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,12; -18,65</t>
+          <t>-67,29; -18,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 42,42</t>
+          <t>-25,21; 38,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,09; -9,55</t>
+          <t>-57,93; -10,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,25; -12,52</t>
+          <t>-59,88; -10,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 25,33</t>
+          <t>-23,39; 21,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,59; -5,46</t>
+          <t>-41,87; -2,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,41; -23,96</t>
+          <t>-58,47; -23,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 5,8</t>
+          <t>-7,93; 6,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 4,93</t>
+          <t>-10,3; 4,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 2,09</t>
+          <t>-13,01; 1,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,61</t>
+          <t>-9,2; 6,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -1,13</t>
+          <t>-17,02; -0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -3,98</t>
+          <t>-21,2; -3,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 4,07</t>
+          <t>-6,9; 3,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -0,58</t>
+          <t>-11,09; -0,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -4,33</t>
+          <t>-15,76; -4,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 24,34</t>
+          <t>-26,38; 27,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 20,25</t>
+          <t>-34,32; 20,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 8,93</t>
+          <t>-44,53; 6,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 21,26</t>
+          <t>-23,42; 19,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,27; -3,99</t>
+          <t>-44,32; -2,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -10,12</t>
+          <t>-56,58; -10,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 15,22</t>
+          <t>-20,88; 13,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,21; -1,97</t>
+          <t>-33,68; -2,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,19; -14,5</t>
+          <t>-47,31; -12,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,65</t>
+          <t>-4,09; 2,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 1,46</t>
+          <t>-3,94; 1,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,76</t>
+          <t>-4,0; 3,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,82</t>
+          <t>-4,62; 2,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -0,67</t>
+          <t>-7,31; -1,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,17</t>
+          <t>-6,67; 1,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,98</t>
+          <t>-3,14; 1,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,52</t>
+          <t>-4,81; -0,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,76</t>
+          <t>-4,48; 0,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 13,17</t>
+          <t>-25,63; 16,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 11,31</t>
+          <t>-25,88; 15,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 23,41</t>
+          <t>-26,19; 24,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 17,75</t>
+          <t>-23,65; 15,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -3,91</t>
+          <t>-38,22; -6,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 7,9</t>
+          <t>-35,09; 10,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 6,43</t>
+          <t>-18,86; 10,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -3,53</t>
+          <t>-28,56; -2,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 5,71</t>
+          <t>-26,6; 6,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2003-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 11,33</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,89</t>
+          <t>0,0; 5,66</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,27</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,26</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,28</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 4,29</t>
+          <t>-3,19; 3,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,49</t>
+          <t>-2,29; 4,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 6,43</t>
+          <t>-1,44; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,1</t>
+          <t>-1,58; 4,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,38</t>
+          <t>-3,09; 3,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,81</t>
+          <t>-1,33; 6,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,94</t>
+          <t>-1,51; 2,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,97</t>
+          <t>-1,65; 2,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 5,13</t>
+          <t>-0,09; 5,41</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49,24%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>30,05%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>6,2%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>53,57%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>26,8%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>52,09%</t>
+          <t>52,27%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 148,73</t>
+          <t>-53,71; 109,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,68; 118,43</t>
+          <t>-40,63; 155,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 228,41</t>
+          <t>-28,38; 222,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 102,2</t>
+          <t>-31,16; 162,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 134,06</t>
+          <t>-52,81; 124,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 213,38</t>
+          <t>-28,83; 239,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 82,37</t>
+          <t>-28,26; 88,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 83,66</t>
+          <t>-30,45; 83,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 137,94</t>
+          <t>-5,16; 159,87</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-9,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-10,08</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,68</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-2,38</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-9,85</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,89</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,71</t>
+          <t>-10,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,84</t>
+          <t>-8,49; 8,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 4,86</t>
+          <t>-17,66; -1,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -3,75</t>
+          <t>-18,93; -1,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 8,93</t>
+          <t>-9,12; 6,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -2,61</t>
+          <t>-9,53; 4,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,07; -2,67</t>
+          <t>-17,41; -3,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 4,7</t>
+          <t>-6,17; 4,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -0,4</t>
+          <t>-11,49; -0,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -5,27</t>
+          <t>-15,31; -4,58</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-35,76%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-36,6%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-7,72%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-10,95%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-48,15%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-35,76%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-39,53%</t>
+          <t>-45,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>-41,59%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 32,88</t>
+          <t>-26,27; 39,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 29,83</t>
+          <t>-55,18; -6,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,29; -18,61</t>
+          <t>-58,89; -6,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 38,79</t>
+          <t>-35,98; 38,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,93; -10,63</t>
+          <t>-36,82; 24,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,88; -10,35</t>
+          <t>-67,53; -17,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 21,71</t>
+          <t>-22,44; 21,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,87; -2,11</t>
+          <t>-41,35; -2,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,47; -23,92</t>
+          <t>-56,7; -21,8</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-9,08</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-8,24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,63</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-2,7</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-6,74</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-9,08</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,82</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-6,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 6,32</t>
+          <t>-9,61; 6,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 4,95</t>
+          <t>-16,52; -1,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 1,62</t>
+          <t>-18,44; 16,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 6,05</t>
+          <t>-8,46; 5,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -0,84</t>
+          <t>-11,03; 4,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,2; -3,96</t>
+          <t>-12,52; 5,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 3,99</t>
+          <t>-7,53; 3,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -0,6</t>
+          <t>-10,71; -0,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -4,3</t>
+          <t>-13,51; 5,69</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-26,36%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-23,92%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-5,98%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-9,87%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-24,67%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-3,72%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-26,36%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-40,11%</t>
+          <t>-19,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>-21,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 27,81</t>
+          <t>-25,22; 21,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 20,86</t>
+          <t>-44,18; -5,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 6,85</t>
+          <t>-51,99; 55,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 19,44</t>
+          <t>-27,29; 24,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,32; -2,5</t>
+          <t>-35,62; 17,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -10,79</t>
+          <t>-41,5; 26,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 13,63</t>
+          <t>-22,22; 12,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,68; -2,09</t>
+          <t>-32,32; -1,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -12,47</t>
+          <t>-41,69; 20,13</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,06</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-1,05</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,27</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,16</t>
+          <t>-4,18; 2,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,96</t>
+          <t>-7,21; -0,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,02</t>
+          <t>-5,43; 12,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,4</t>
+          <t>-3,85; 2,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,02</t>
+          <t>-4,39; 1,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,57</t>
+          <t>-3,62; 4,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,48</t>
+          <t>-3,22; 1,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,4</t>
+          <t>-5,07; -0,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,83</t>
+          <t>-3,2; 5,8</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-4,47%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-23,1%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-7,37%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-8,93%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-6,68%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-4,47%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-23,1%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,01%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-1,84%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 16,66</t>
+          <t>-22,17; 15,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 15,51</t>
+          <t>-38,69; -5,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 24,25</t>
+          <t>-29,52; 87,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 15,16</t>
+          <t>-25,17; 16,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,22; -6,37</t>
+          <t>-28,04; 11,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 10,9</t>
+          <t>-23,7; 39,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 10,06</t>
+          <t>-19,28; 8,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -2,84</t>
+          <t>-28,82; -1,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 6,07</t>
+          <t>-19,52; 37,75</t>
         </is>
       </c>
     </row>
